--- a/app/public/admin/download/text1.xlsx
+++ b/app/public/admin/download/text1.xlsx
@@ -397,7 +397,7 @@
         <v>联系电话</v>
       </c>
       <c r="D1" t="str">
-        <v>身份证号</v>
+        <v>身份证号2</v>
       </c>
     </row>
     <row r="2">
